--- a/va_facility_data_2025-02-20/Prestonsburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Prestonsburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Prestonsburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Prestonsburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd0a5aad9de334309bd1554da54fd531e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2a5c889f99ad46b99aee5d6c6c45fb01"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0ea73ce16f8f4bb3abc11ccce8d8806f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R72c204d39d6a4d75b2eae16e9d88a1ea"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9da33ae3e92849dda7a080b1648c8f4c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re1e3701e7ab64acc8a3b20c874fa3bac"/>
   </x:sheets>
 </x:workbook>
 </file>
